--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k27975/Documents/interview/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB5288-5707-8D4F-B5B4-09BA7B2B82AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666743D-8688-F048-8EE2-FA046D669CC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{AA56D850-8872-5A4E-B641-E9A9B4A81664}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -42,13 +39,7 @@
     <t>answer</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>single answer</t>
   </si>
   <si>
     <t>senior</t>
@@ -409,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D3E9BE-1600-B24A-985F-160515012FB1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,51 +421,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
